--- a/Code/Polygons_analysis/Chandler_AZ/clustering_analysis/urban_pattern_analysis.xlsx
+++ b/Code/Polygons_analysis/Chandler_AZ/clustering_analysis/urban_pattern_analysis.xlsx
@@ -571,144 +571,144 @@
         <v>-2.373339229032777</v>
       </c>
       <c r="N2" t="n">
-        <v>-2.123534951369136</v>
+        <v>-2.123534951365946</v>
       </c>
       <c r="O2" t="n">
-        <v>1.258500450069177</v>
+        <v>1.258500450071222</v>
       </c>
       <c r="P2" t="n">
         <v>0.2631682795362266</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.52387325280967</v>
+        <v>2.523873252807254</v>
       </c>
       <c r="R2" t="n">
         <v>3.52080265366364</v>
       </c>
       <c r="S2" t="n">
-        <v>1.114014567442094</v>
+        <v>1.11401456744218</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>gridiron</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.09179667979808301</v>
+        <v>-0.491106918985505</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08766132596234139</v>
+        <v>-0.444158356473826</v>
       </c>
       <c r="D3" t="n">
-        <v>0.08406273905535534</v>
+        <v>-0.4872693868721904</v>
       </c>
       <c r="E3" t="n">
-        <v>0.08036367294010627</v>
+        <v>-0.4703906023584588</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1217204594508749</v>
+        <v>-0.5854957149805197</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.03552218462454629</v>
+        <v>0.3225360575916775</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.08206907441134885</v>
+        <v>0.7435405995071694</v>
       </c>
       <c r="I3" t="n">
-        <v>0.06716881581542034</v>
+        <v>-0.3719437614598251</v>
       </c>
       <c r="J3" t="n">
-        <v>0.08016390178954251</v>
+        <v>-0.4455642165681165</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.01991883151315394</v>
+        <v>0.2622864853698882</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2352331769630134</v>
+        <v>-1.314854952193159</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.05065649080093677</v>
+        <v>0.6683156514965354</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.04270943725428213</v>
+        <v>0.5809734780641335</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.1497771727623986</v>
+        <v>0.7937658443710659</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.1586489835846391</v>
+        <v>0.9936229247949928</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.1160743527862367</v>
+        <v>0.3939299712773002</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.1709394763258674</v>
+        <v>0.6081347884519047</v>
       </c>
       <c r="S3" t="n">
-        <v>-0.04655048367944013</v>
+        <v>0.1434332057103586</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.491106918985505</v>
+        <v>0.09179667979808301</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.444158356473826</v>
+        <v>0.08766132596234139</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.4872693868721904</v>
+        <v>0.08406273905535534</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.4703906023584588</v>
+        <v>0.08036367294010627</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.5854957149805197</v>
+        <v>0.1217204594508749</v>
       </c>
       <c r="G4" t="n">
-        <v>0.3225360575916775</v>
+        <v>-0.03552218462454629</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7435405995071694</v>
+        <v>-0.08206907441134885</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3719437614598251</v>
+        <v>0.06716881581542034</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.4455642165681165</v>
+        <v>0.08016390178954251</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2622864853698882</v>
+        <v>-0.01991883151315394</v>
       </c>
       <c r="L4" t="n">
-        <v>-1.314854952193159</v>
+        <v>0.2352331769630134</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6683156514965354</v>
+        <v>-0.05065649080093677</v>
       </c>
       <c r="N4" t="n">
-        <v>0.5809734780627575</v>
+        <v>-0.04270943725456213</v>
       </c>
       <c r="O4" t="n">
-        <v>0.7937658443743187</v>
+        <v>-0.1497771727619427</v>
       </c>
       <c r="P4" t="n">
-        <v>0.9936229247949928</v>
+        <v>-0.1586489835846391</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.3939299712805693</v>
+        <v>-0.1160743527856788</v>
       </c>
       <c r="R4" t="n">
-        <v>0.6081347884519047</v>
+        <v>-0.1709394763258674</v>
       </c>
       <c r="S4" t="n">
-        <v>0.1434332057103488</v>
+        <v>-0.04655048367944369</v>
       </c>
     </row>
   </sheetData>
@@ -912,58 +912,58 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.9485120943920902</v>
+        <v>-0.9485120943921059</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.934762186342441</v>
+        <v>-0.9347621863424405</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.8987522227192509</v>
+        <v>-0.898752222719257</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.9216307951150439</v>
+        <v>-0.9216307951150429</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.6403370045522283</v>
+        <v>-0.6403370045522907</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1095556081035191</v>
+        <v>0.1095556081035446</v>
       </c>
       <c r="H2" t="n">
-        <v>0.03881330965336439</v>
+        <v>0.03881330965336988</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.9072423368802975</v>
+        <v>-0.9072423368802802</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.9067960642385393</v>
+        <v>-0.9067960642385205</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0443010063474444</v>
+        <v>0.04430100634742681</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.2026853616217358</v>
+        <v>-0.2026853616217933</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.1296134434270247</v>
+        <v>-0.1296134434270167</v>
       </c>
       <c r="N2" t="n">
-        <v>0.06236395406595799</v>
+        <v>0.06236395406479598</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2056899896083024</v>
+        <v>0.2056899896063863</v>
       </c>
       <c r="P2" t="n">
-        <v>0.2474069596152941</v>
+        <v>0.2474069596141949</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.1798090025544491</v>
+        <v>0.1798090025533682</v>
       </c>
       <c r="R2" t="n">
-        <v>0.6559061343707489</v>
+        <v>0.6559061343708406</v>
       </c>
       <c r="S2" t="n">
-        <v>0.4164834672006712</v>
+        <v>0.416483467200547</v>
       </c>
     </row>
     <row r="3">
@@ -973,58 +973,58 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6327164971904459</v>
+        <v>0.6327164971904593</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6186811167137957</v>
+        <v>0.6186811167138055</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6209482386500326</v>
+        <v>0.6209482386500351</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6355429618858255</v>
+        <v>0.6355429618858189</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4565361021825552</v>
+        <v>0.4565361021825641</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2545008869708492</v>
+        <v>-0.2545008869708621</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.06805123731973205</v>
+        <v>-0.06805123731973965</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6275665328641191</v>
+        <v>0.627566532864108</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6274298144215842</v>
+        <v>0.627429814421574</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.2165407236124438</v>
+        <v>-0.2165407236124499</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1637716764540048</v>
+        <v>0.1637716764540269</v>
       </c>
       <c r="M3" t="n">
-        <v>0.03007172714966483</v>
+        <v>0.03007172714966573</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.08793653256877576</v>
+        <v>-0.08793653256892367</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.1322946321817461</v>
+        <v>-0.1322946321812395</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.1842147182358568</v>
+        <v>-0.1842147182354268</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.09179445904033313</v>
+        <v>-0.09179445903982315</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.4144688075372618</v>
+        <v>-0.4144688075373067</v>
       </c>
       <c r="S3" t="n">
-        <v>-0.3085948897355348</v>
+        <v>-0.3085948897354614</v>
       </c>
     </row>
     <row r="4">
@@ -1034,58 +1034,58 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.59304427084766</v>
+        <v>-1.593044270847795</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.411892566349493</v>
+        <v>-1.411892566349839</v>
       </c>
       <c r="D4" t="n">
-        <v>-2.205773301741002</v>
+        <v>-2.205773301740958</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.22253035898846</v>
+        <v>-2.222530358988272</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.030683229888714</v>
+        <v>-2.030683229887761</v>
       </c>
       <c r="G4" t="n">
-        <v>6.080166664482152</v>
+        <v>6.080166664482058</v>
       </c>
       <c r="H4" t="n">
-        <v>1.435399019824426</v>
+        <v>1.435399019824561</v>
       </c>
       <c r="I4" t="n">
-        <v>-2.251065580477927</v>
+        <v>-2.251065580477916</v>
       </c>
       <c r="J4" t="n">
-        <v>-2.255547683930723</v>
+        <v>-2.255547683930771</v>
       </c>
       <c r="K4" t="n">
-        <v>6.151553390455539</v>
+        <v>6.151553390456094</v>
       </c>
       <c r="L4" t="n">
-        <v>-1.26887225232043</v>
+        <v>-1.268872252320001</v>
       </c>
       <c r="M4" t="n">
-        <v>1.614937736176738</v>
+        <v>1.614937736176546</v>
       </c>
       <c r="N4" t="n">
-        <v>1.610658227166383</v>
+        <v>1.610658227194514</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1857757537409663</v>
+        <v>0.185775753762851</v>
       </c>
       <c r="P4" t="n">
-        <v>1.038839150359559</v>
+        <v>1.03883915036757</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.612860132278276</v>
+        <v>-0.6128601322731446</v>
       </c>
       <c r="R4" t="n">
-        <v>0.3521135575460356</v>
+        <v>0.3521135575456641</v>
       </c>
       <c r="S4" t="n">
-        <v>1.699664572391469</v>
+        <v>1.699664572391559</v>
       </c>
     </row>
   </sheetData>
@@ -1129,7 +1129,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>55.1329725156493</v>
+        <v>55.13297251566417</v>
       </c>
     </row>
     <row r="3">
@@ -1142,7 +1142,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>53.42851926226897</v>
+        <v>53.42851926226658</v>
       </c>
     </row>
     <row r="4">
@@ -1155,7 +1155,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3.999182854445511</v>
+        <v>3.999182854445662</v>
       </c>
     </row>
     <row r="5">
@@ -1168,7 +1168,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3.981475104023699</v>
+        <v>3.981475104023601</v>
       </c>
     </row>
     <row r="6">
@@ -1181,7 +1181,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3.901496471702527</v>
+        <v>3.901496471701749</v>
       </c>
     </row>
     <row r="7">
@@ -1194,7 +1194,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3.771521260814152</v>
+        <v>3.771521260813992</v>
       </c>
     </row>
     <row r="8">
@@ -1207,7 +1207,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2.576331770204245</v>
+        <v>2.576331770201233</v>
       </c>
     </row>
     <row r="9">
@@ -1220,7 +1220,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1.946234047054209</v>
+        <v>1.946234047054562</v>
       </c>
     </row>
     <row r="10">
@@ -1233,7 +1233,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1.52610449516803</v>
+        <v>1.526104495168705</v>
       </c>
     </row>
     <row r="11">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1.384672236963601</v>
+        <v>1.384672236963687</v>
       </c>
     </row>
     <row r="12">
@@ -1259,7 +1259,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1.081768746335372</v>
+        <v>1.081768746334994</v>
       </c>
     </row>
     <row r="13">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1.00123282157849</v>
+        <v>1.001232821630353</v>
       </c>
     </row>
     <row r="14">
@@ -1285,7 +1285,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.7053243692979474</v>
+        <v>0.7053243692981462</v>
       </c>
     </row>
     <row r="15">
@@ -1298,7 +1298,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.5290457747545805</v>
+        <v>0.5290457747540894</v>
       </c>
     </row>
     <row r="16">
@@ -1311,7 +1311,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.3137164361940016</v>
+        <v>0.3137164362002465</v>
       </c>
     </row>
     <row r="17">
@@ -1324,7 +1324,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.2171244828394432</v>
+        <v>0.2171244828394796</v>
       </c>
     </row>
     <row r="18">
@@ -1337,7 +1337,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.08574938223273471</v>
+        <v>0.085749382230695</v>
       </c>
     </row>
     <row r="19">
@@ -1350,7 +1350,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.008104080788059685</v>
+        <v>0.008104080788415211</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Polygons_analysis/Chandler_AZ/clustering_analysis/urban_pattern_analysis.xlsx
+++ b/Code/Polygons_analysis/Chandler_AZ/clustering_analysis/urban_pattern_analysis.xlsx
@@ -11,6 +11,10 @@
     <sheet name="Pattern_Cluster_Matrix" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Cluster_Centers" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Feature_Importance" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Polygons_Original" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Polygons_Cluster" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Classification_Compare" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Accuracy_Summary" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:S5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,184 +535,245 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>gridiron</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.7390004979142305</v>
+        <v>-0.1303898531472006</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.8794818359697207</v>
+        <v>-0.09520460814740669</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.4139689189133019</v>
+        <v>-0.1848894531753492</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.3638129022656398</v>
+        <v>-0.1279130808890076</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.439810900151412</v>
+        <v>-0.03876702341662987</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.6414930027249486</v>
+        <v>0.3239279761606061</v>
       </c>
       <c r="H2" t="n">
-        <v>-1.470641310833392</v>
+        <v>0.9499791980681802</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.4525747893828622</v>
+        <v>-0.02075871133999178</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.528508015447398</v>
+        <v>-0.1115444578397404</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.9296985637407058</v>
+        <v>0.3581372699063409</v>
       </c>
       <c r="L2" t="n">
-        <v>-1.499124886464986</v>
+        <v>-1.242520552695593</v>
       </c>
       <c r="M2" t="n">
-        <v>-2.373339229032777</v>
+        <v>0.975606635372916</v>
       </c>
       <c r="N2" t="n">
-        <v>-2.123534951365946</v>
+        <v>1.039834990356505</v>
       </c>
       <c r="O2" t="n">
-        <v>1.258500450071222</v>
+        <v>0.7671280825614605</v>
       </c>
       <c r="P2" t="n">
-        <v>0.2631682795362266</v>
+        <v>1.158261334821004</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.523873252807254</v>
+        <v>0.1299232252133136</v>
       </c>
       <c r="R2" t="n">
-        <v>3.52080265366364</v>
+        <v>0.1861667996849394</v>
       </c>
       <c r="S2" t="n">
-        <v>1.11401456744218</v>
+        <v>-0.2194933605665309</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.491106918985505</v>
+        <v>-0.3299498916590207</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.444158356473826</v>
+        <v>-0.3402379370193128</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.4872693868721904</v>
+        <v>-0.2578422647891949</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.4703906023584588</v>
+        <v>-0.2822605780011798</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.5854957149805197</v>
+        <v>-0.6414955562951437</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3225360575916775</v>
+        <v>0.2733832795039879</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7435405995071694</v>
+        <v>-0.2115878415918628</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.3719437614598251</v>
+        <v>-0.2710122371765735</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.4455642165681165</v>
+        <v>-0.3307702370253575</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2622864853698882</v>
+        <v>0.1081885877476478</v>
       </c>
       <c r="L3" t="n">
-        <v>-1.314854952193159</v>
+        <v>-1.173321050323817</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6683156514965354</v>
+        <v>0.03982009115318286</v>
       </c>
       <c r="N3" t="n">
-        <v>0.5809734780641335</v>
+        <v>-0.821841508389715</v>
       </c>
       <c r="O3" t="n">
-        <v>0.7937658443710659</v>
+        <v>0.5045860013754679</v>
       </c>
       <c r="P3" t="n">
-        <v>0.9936229247949928</v>
+        <v>0.03438793366087558</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.3939299712773002</v>
+        <v>0.8745844172852066</v>
       </c>
       <c r="R3" t="n">
-        <v>0.6081347884519047</v>
+        <v>0.3409295621982631</v>
       </c>
       <c r="S3" t="n">
-        <v>0.1434332057103586</v>
+        <v>0.6397717209060449</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.09179667979808301</v>
+        <v>-1.848651294172667</v>
       </c>
       <c r="C4" t="n">
-        <v>0.08766132596234139</v>
+        <v>-1.845517032131728</v>
       </c>
       <c r="D4" t="n">
-        <v>0.08406273905535534</v>
+        <v>-1.433862160278242</v>
       </c>
       <c r="E4" t="n">
-        <v>0.08036367294010627</v>
+        <v>-1.530350612669589</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1217204594508749</v>
+        <v>-2.389589567034295</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.03552218462454629</v>
+        <v>-0.6372202040227455</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.08206907441134885</v>
+        <v>-0.8844195626791647</v>
       </c>
       <c r="I4" t="n">
-        <v>0.06716881581542034</v>
+        <v>-1.516840701790932</v>
       </c>
       <c r="J4" t="n">
-        <v>0.08016390178954251</v>
+        <v>-1.499529881793564</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.01991883151315394</v>
+        <v>-0.8383491716921569</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2352331769630134</v>
+        <v>-1.174159309950514</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.05065649080093677</v>
+        <v>-1.916827179203874</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.04270943725456213</v>
+        <v>0.02981696532923456</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.1497771727619427</v>
+        <v>1.731503056684119</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.1586489835846391</v>
+        <v>1.908032053061518</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.1160743527856788</v>
+        <v>1.634255713208566</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.1709394763258674</v>
+        <v>3.715095477063076</v>
       </c>
       <c r="S4" t="n">
-        <v>-0.04655048367944369</v>
+        <v>1.309672546527908</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.117593785982475</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.1140375442624727</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1008358465546875</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.1001345016997079</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.1494716623156671</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-0.0233785834435812</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-0.05572925593187484</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.08670467166416464</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.09962971921248168</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-0.0087377153526478</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.2612323638451942</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-0.02599838741680547</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.07282284344241764</v>
+      </c>
+      <c r="O5" t="n">
+        <v>-0.1945479893094077</v>
+      </c>
+      <c r="P5" t="n">
+        <v>-0.220303195781367</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-0.1387406499022006</v>
+      </c>
+      <c r="R5" t="n">
+        <v>-0.2093942922283294</v>
+      </c>
+      <c r="S5" t="n">
+        <v>-0.07093880892018781</v>
       </c>
     </row>
   </sheetData>
@@ -722,7 +787,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -749,48 +814,64 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>17.5</v>
+        <v>10</v>
       </c>
       <c r="C2" t="n">
-        <v>9.230769230769232</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>gridiron</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.5</v>
+        <v>7.5</v>
       </c>
       <c r="C3" t="n">
-        <v>1.538461538461539</v>
+        <v>9.230769230769232</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>80</v>
+        <v>7.5</v>
       </c>
       <c r="C4" t="n">
-        <v>89.23076923076924</v>
+        <v>3.076923076923077</v>
       </c>
       <c r="D4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>75</v>
+      </c>
+      <c r="C5" t="n">
+        <v>87.69230769230769</v>
+      </c>
+      <c r="D5" t="n">
         <v>50</v>
       </c>
     </row>
@@ -912,58 +993,58 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.9485120943921059</v>
+        <v>-0.9485120943920902</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.9347621863424405</v>
+        <v>-0.934762186342441</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.898752222719257</v>
+        <v>-0.8987522227192509</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.9216307951150429</v>
+        <v>-0.9216307951150439</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.6403370045522907</v>
+        <v>-0.6403370045522283</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1095556081035446</v>
+        <v>0.1095556081035191</v>
       </c>
       <c r="H2" t="n">
-        <v>0.03881330965336988</v>
+        <v>0.03881330965336439</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.9072423368802802</v>
+        <v>-0.9072423368802975</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.9067960642385205</v>
+        <v>-0.9067960642385393</v>
       </c>
       <c r="K2" t="n">
-        <v>0.04430100634742681</v>
+        <v>0.0443010063474444</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.2026853616217933</v>
+        <v>-0.2026853616217358</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.1296134434270167</v>
+        <v>-0.1296134434270247</v>
       </c>
       <c r="N2" t="n">
-        <v>0.06236395406479598</v>
+        <v>0.06236395406595799</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2056899896063863</v>
+        <v>0.2056899896083024</v>
       </c>
       <c r="P2" t="n">
-        <v>0.2474069596141949</v>
+        <v>0.2474069596152941</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.1798090025533682</v>
+        <v>0.1798090025544491</v>
       </c>
       <c r="R2" t="n">
-        <v>0.6559061343708406</v>
+        <v>0.6559061343707489</v>
       </c>
       <c r="S2" t="n">
-        <v>0.416483467200547</v>
+        <v>0.4164834672006712</v>
       </c>
     </row>
     <row r="3">
@@ -973,58 +1054,58 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6327164971904593</v>
+        <v>0.6327164971904459</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6186811167138055</v>
+        <v>0.6186811167137957</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6209482386500351</v>
+        <v>0.6209482386500326</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6355429618858189</v>
+        <v>0.6355429618858255</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4565361021825641</v>
+        <v>0.4565361021825552</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2545008869708621</v>
+        <v>-0.2545008869708492</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.06805123731973965</v>
+        <v>-0.06805123731973205</v>
       </c>
       <c r="I3" t="n">
-        <v>0.627566532864108</v>
+        <v>0.6275665328641191</v>
       </c>
       <c r="J3" t="n">
-        <v>0.627429814421574</v>
+        <v>0.6274298144215842</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.2165407236124499</v>
+        <v>-0.2165407236124438</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1637716764540269</v>
+        <v>0.1637716764540048</v>
       </c>
       <c r="M3" t="n">
-        <v>0.03007172714966573</v>
+        <v>0.03007172714966483</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.08793653256892367</v>
+        <v>-0.08793653256877576</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.1322946321812395</v>
+        <v>-0.1322946321817461</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.1842147182354268</v>
+        <v>-0.1842147182358568</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.09179445903982315</v>
+        <v>-0.09179445904033313</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.4144688075373067</v>
+        <v>-0.4144688075372618</v>
       </c>
       <c r="S3" t="n">
-        <v>-0.3085948897354614</v>
+        <v>-0.3085948897355348</v>
       </c>
     </row>
     <row r="4">
@@ -1034,58 +1115,58 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.593044270847795</v>
+        <v>-1.59304427084766</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.411892566349839</v>
+        <v>-1.411892566349493</v>
       </c>
       <c r="D4" t="n">
-        <v>-2.205773301740958</v>
+        <v>-2.205773301741002</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.222530358988272</v>
+        <v>-2.22253035898846</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.030683229887761</v>
+        <v>-2.030683229888714</v>
       </c>
       <c r="G4" t="n">
-        <v>6.080166664482058</v>
+        <v>6.080166664482152</v>
       </c>
       <c r="H4" t="n">
-        <v>1.435399019824561</v>
+        <v>1.435399019824426</v>
       </c>
       <c r="I4" t="n">
-        <v>-2.251065580477916</v>
+        <v>-2.251065580477927</v>
       </c>
       <c r="J4" t="n">
-        <v>-2.255547683930771</v>
+        <v>-2.255547683930723</v>
       </c>
       <c r="K4" t="n">
-        <v>6.151553390456094</v>
+        <v>6.151553390455539</v>
       </c>
       <c r="L4" t="n">
-        <v>-1.268872252320001</v>
+        <v>-1.26887225232043</v>
       </c>
       <c r="M4" t="n">
-        <v>1.614937736176546</v>
+        <v>1.614937736176738</v>
       </c>
       <c r="N4" t="n">
-        <v>1.610658227194514</v>
+        <v>1.610658227166383</v>
       </c>
       <c r="O4" t="n">
-        <v>0.185775753762851</v>
+        <v>0.1857757537409663</v>
       </c>
       <c r="P4" t="n">
-        <v>1.03883915036757</v>
+        <v>1.038839150359559</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.6128601322731446</v>
+        <v>-0.612860132278276</v>
       </c>
       <c r="R4" t="n">
-        <v>0.3521135575456641</v>
+        <v>0.3521135575460356</v>
       </c>
       <c r="S4" t="n">
-        <v>1.699664572391559</v>
+        <v>1.699664572391469</v>
       </c>
     </row>
   </sheetData>
@@ -1129,7 +1210,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>55.13297251566417</v>
+        <v>55.1329725156493</v>
       </c>
     </row>
     <row r="3">
@@ -1142,7 +1223,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>53.42851926226658</v>
+        <v>53.42851926226897</v>
       </c>
     </row>
     <row r="4">
@@ -1155,7 +1236,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3.999182854445662</v>
+        <v>3.999182854445511</v>
       </c>
     </row>
     <row r="5">
@@ -1168,7 +1249,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3.981475104023601</v>
+        <v>3.981475104023699</v>
       </c>
     </row>
     <row r="6">
@@ -1181,7 +1262,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3.901496471701749</v>
+        <v>3.901496471702527</v>
       </c>
     </row>
     <row r="7">
@@ -1194,7 +1275,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3.771521260813992</v>
+        <v>3.771521260814152</v>
       </c>
     </row>
     <row r="8">
@@ -1207,7 +1288,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2.576331770201233</v>
+        <v>2.576331770204245</v>
       </c>
     </row>
     <row r="9">
@@ -1220,7 +1301,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1.946234047054562</v>
+        <v>1.946234047054209</v>
       </c>
     </row>
     <row r="10">
@@ -1233,7 +1314,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1.526104495168705</v>
+        <v>1.52610449516803</v>
       </c>
     </row>
     <row r="11">
@@ -1246,7 +1327,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1.384672236963687</v>
+        <v>1.384672236963601</v>
       </c>
     </row>
     <row r="12">
@@ -1259,7 +1340,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1.081768746334994</v>
+        <v>1.081768746335372</v>
       </c>
     </row>
     <row r="13">
@@ -1272,7 +1353,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1.001232821630353</v>
+        <v>1.00123282157849</v>
       </c>
     </row>
     <row r="14">
@@ -1285,7 +1366,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.7053243692981462</v>
+        <v>0.7053243692979474</v>
       </c>
     </row>
     <row r="15">
@@ -1298,7 +1379,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.5290457747540894</v>
+        <v>0.5290457747545805</v>
       </c>
     </row>
     <row r="16">
@@ -1311,7 +1392,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.3137164362002465</v>
+        <v>0.3137164361940016</v>
       </c>
     </row>
     <row r="17">
@@ -1324,7 +1405,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.2171244828394796</v>
+        <v>0.2171244828394432</v>
       </c>
     </row>
     <row r="18">
@@ -1337,7 +1418,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.085749382230695</v>
+        <v>0.08574938223273471</v>
       </c>
     </row>
     <row r="19">
@@ -1350,7 +1431,6641 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.008104080788415211</v>
+        <v>0.008104080788059685</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C108"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>poly_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>subpoly_id</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>original_pattern</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>cul_de_sac</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>hibrido</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>hibrido</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>cul_de_sac</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>hibrido</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>cul_de_sac</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>hibrido</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>hibrido</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>cul_de_sac</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E108"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>poly_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>subpoly_id</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>cluster</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>cluster_pattern</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>cluster_name</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>organico_bajo_street</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>organico_bajo_street</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>organico_bajo_street</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>organico_bajo_street</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>organico_bajo_street</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>organico_bajo_street</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>organico_bajo_street</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>organico_bajo_street</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>organico_bajo_street</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>organico_bajo_street</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>organico_bajo_street</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>organico_bajo_street</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>organico_bajo_street</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>organico_bajo_street</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>organico_bajo_street</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>organico_bajo_street</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>2</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>organico_bajo_street</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>organico_bajo_street</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>organico_bajo_street</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>organico_bajo_street</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>organico_bajo_street</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>organico_bajo_street</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>organico_bajo_street</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>organico_bajo_street</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>organico_bajo_street</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>organico_bajo_street</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>organico_bajo_street</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>organico_bajo_street</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>organico_bajo_street</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>organico_bajo_street</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>organico_bajo_street</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>organico_bajo_street</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>organico_bajo_street</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>organico_bajo_street</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>organico_bajo_street</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>organico_bajo_street</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>organico_bajo_street</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>organico_bajo_street</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>organico_bajo_street</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>organico_bajo_street</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>organico_bajo_street</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>organico_bajo_street</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>organico_bajo_street</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>organico_bajo_street</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>organico_bajo_street</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>organico_bajo_street</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>organico_bajo_street</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>organico_bajo_street</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>organico_bajo_street</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0</v>
+      </c>
+      <c r="C84" t="n">
+        <v>1</v>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>organico_bajo_street</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>organico_bajo_street</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0</v>
+      </c>
+      <c r="C89" t="n">
+        <v>1</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>organico_bajo_street</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0</v>
+      </c>
+      <c r="C90" t="n">
+        <v>1</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>organico_bajo_street</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0</v>
+      </c>
+      <c r="C91" t="n">
+        <v>1</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>organico_bajo_street</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0</v>
+      </c>
+      <c r="C92" t="n">
+        <v>1</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>organico_bajo_street</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0</v>
+      </c>
+      <c r="C93" t="n">
+        <v>1</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>organico_bajo_street</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0</v>
+      </c>
+      <c r="C96" t="n">
+        <v>1</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>organico_bajo_street</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0</v>
+      </c>
+      <c r="C97" t="n">
+        <v>1</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>organico_bajo_street</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0</v>
+      </c>
+      <c r="C99" t="n">
+        <v>1</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>organico_bajo_street</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0</v>
+      </c>
+      <c r="C100" t="n">
+        <v>1</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>organico_bajo_street</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0</v>
+      </c>
+      <c r="C101" t="n">
+        <v>1</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>organico_bajo_street</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0</v>
+      </c>
+      <c r="C102" t="n">
+        <v>1</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>organico_bajo_street</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0</v>
+      </c>
+      <c r="C103" t="n">
+        <v>1</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>organico_bajo_street</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0</v>
+      </c>
+      <c r="C104" t="n">
+        <v>1</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>organico_bajo_street</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0</v>
+      </c>
+      <c r="C106" t="n">
+        <v>1</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>organico_bajo_street</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0</v>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F108"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>poly_id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>subpoly_id</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>original_pattern</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>cluster_pattern</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>match</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>match_text</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>No coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>No coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>cul_de_sac</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>No coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>No coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E17" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E18" t="b">
+        <v>1</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>hibrido</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>No coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E20" t="b">
+        <v>1</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>hibrido</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E21" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>No coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E23" t="b">
+        <v>1</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E24" t="b">
+        <v>1</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>No coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E26" t="b">
+        <v>1</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E27" t="b">
+        <v>1</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E28" t="b">
+        <v>1</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>cul_de_sac</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E29" t="b">
+        <v>0</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>No coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E30" t="b">
+        <v>1</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E31" t="b">
+        <v>1</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="E32" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>No coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E33" t="b">
+        <v>0</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>No coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>hibrido</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E34" t="b">
+        <v>0</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>No coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E35" t="b">
+        <v>1</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E36" t="b">
+        <v>1</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E37" t="b">
+        <v>1</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E38" t="b">
+        <v>1</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E39" t="b">
+        <v>1</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E40" t="b">
+        <v>1</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E41" t="b">
+        <v>1</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E42" t="b">
+        <v>1</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E43" t="b">
+        <v>1</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>cul_de_sac</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E44" t="b">
+        <v>0</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>No coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E45" t="b">
+        <v>0</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>No coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E46" t="b">
+        <v>0</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>No coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E47" t="b">
+        <v>1</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E48" t="b">
+        <v>1</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E49" t="b">
+        <v>1</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E50" t="b">
+        <v>0</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>No coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E51" t="b">
+        <v>1</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E52" t="b">
+        <v>1</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E53" t="b">
+        <v>1</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E54" t="b">
+        <v>1</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E55" t="b">
+        <v>1</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E56" t="b">
+        <v>1</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E57" t="b">
+        <v>1</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E58" t="b">
+        <v>1</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E59" t="b">
+        <v>1</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E60" t="b">
+        <v>1</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>hibrido</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E61" t="b">
+        <v>0</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>No coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E62" t="b">
+        <v>1</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E63" t="b">
+        <v>1</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E64" t="b">
+        <v>1</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E65" t="b">
+        <v>1</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E66" t="b">
+        <v>1</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E67" t="b">
+        <v>1</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E68" t="b">
+        <v>1</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E69" t="b">
+        <v>1</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E70" t="b">
+        <v>1</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E71" t="b">
+        <v>1</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E72" t="b">
+        <v>1</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E73" t="b">
+        <v>1</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E74" t="b">
+        <v>1</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E75" t="b">
+        <v>1</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E76" t="b">
+        <v>1</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E77" t="b">
+        <v>1</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>hibrido</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E78" t="b">
+        <v>0</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>No coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E79" t="b">
+        <v>1</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E80" t="b">
+        <v>1</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E81" t="b">
+        <v>1</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E82" t="b">
+        <v>1</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E83" t="b">
+        <v>1</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E84" t="b">
+        <v>1</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E85" t="b">
+        <v>1</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E86" t="b">
+        <v>1</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E87" t="b">
+        <v>1</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E88" t="b">
+        <v>1</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E89" t="b">
+        <v>1</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E90" t="b">
+        <v>1</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E91" t="b">
+        <v>1</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E92" t="b">
+        <v>1</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E93" t="b">
+        <v>1</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E94" t="b">
+        <v>1</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E95" t="b">
+        <v>1</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E96" t="b">
+        <v>1</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E97" t="b">
+        <v>1</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E98" t="b">
+        <v>1</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E99" t="b">
+        <v>1</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E100" t="b">
+        <v>1</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E101" t="b">
+        <v>1</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E102" t="b">
+        <v>1</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E103" t="b">
+        <v>1</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E104" t="b">
+        <v>1</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E105" t="b">
+        <v>1</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E106" t="b">
+        <v>1</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>cul_de_sac</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E107" t="b">
+        <v>0</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>No coincide</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="E108" t="b">
+        <v>0</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>No coincide</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Patrón</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Exactitud (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>organico</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>98.86363636363636</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Global</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>82.2429906542056</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>gridiron</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>cul_de_sac</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>hibrido</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Polygons_analysis/Chandler_AZ/clustering_analysis/urban_pattern_analysis.xlsx
+++ b/Code/Polygons_analysis/Chandler_AZ/clustering_analysis/urban_pattern_analysis.xlsx
@@ -535,123 +535,123 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.1303898531472006</v>
+        <v>0.503091174310294</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.09520460814740669</v>
+        <v>0.2213590038886145</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.1848894531753492</v>
+        <v>0.3094446255436181</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.1279130808890076</v>
+        <v>0.5234030543096369</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.03876702341662987</v>
+        <v>1.100984665915834</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3239279761606061</v>
+        <v>-0.3035802129563768</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9499791980681802</v>
+        <v>-0.6683345827693862</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.02075871133999178</v>
+        <v>0.2567268893501971</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.1115444578397404</v>
+        <v>0.2790948759134471</v>
       </c>
       <c r="K2" t="n">
-        <v>0.3581372699063409</v>
+        <v>-0.275429388044856</v>
       </c>
       <c r="L2" t="n">
-        <v>-1.242520552695593</v>
+        <v>-0.7030685574706657</v>
       </c>
       <c r="M2" t="n">
-        <v>0.975606635372916</v>
+        <v>-0.3760184739041023</v>
       </c>
       <c r="N2" t="n">
-        <v>1.039834990356505</v>
+        <v>-0.2626640401253454</v>
       </c>
       <c r="O2" t="n">
-        <v>0.7671280825614605</v>
+        <v>0.2813381803275932</v>
       </c>
       <c r="P2" t="n">
-        <v>1.158261334821004</v>
+        <v>0.4590458845946939</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.1299232252133136</v>
+        <v>0.3322657102691432</v>
       </c>
       <c r="R2" t="n">
-        <v>0.1861667996849394</v>
+        <v>-0.5051089540000603</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.2194933605665309</v>
+        <v>-0.7525655366858693</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>gridiron</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.3299498916590207</v>
+        <v>0.8538048143012191</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.3402379370193128</v>
+        <v>0.704887269034271</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.2578422647891949</v>
+        <v>0.5731987630939643</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.2822605780011798</v>
+        <v>0.9883477829702336</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.6414955562951437</v>
+        <v>1.773040823490075</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2733832795039879</v>
+        <v>-0.4596146388249173</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.2115878415918628</v>
+        <v>1.101196517126657</v>
       </c>
       <c r="I3" t="n">
-        <v>-0.2710122371765735</v>
+        <v>0.8370787287014381</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.3307702370253575</v>
+        <v>0.8265446687325679</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1081885877476478</v>
+        <v>-0.3872008034352337</v>
       </c>
       <c r="L3" t="n">
-        <v>-1.173321050323817</v>
+        <v>-1.358559606297848</v>
       </c>
       <c r="M3" t="n">
-        <v>0.03982009115318286</v>
+        <v>1.235025912549473</v>
       </c>
       <c r="N3" t="n">
-        <v>-0.821841508389715</v>
+        <v>1.367855068653109</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5045860013754679</v>
+        <v>2.079165421859431</v>
       </c>
       <c r="P3" t="n">
-        <v>0.03438793366087558</v>
+        <v>2.258205357676029</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.8745844172852066</v>
+        <v>0.9781640133913483</v>
       </c>
       <c r="R3" t="n">
-        <v>0.3409295621982631</v>
+        <v>-0.5940867575012225</v>
       </c>
       <c r="S3" t="n">
-        <v>0.6397717209060449</v>
+        <v>-0.7525655366858693</v>
       </c>
     </row>
     <row r="4">
@@ -661,58 +661,58 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1.848651294172667</v>
+        <v>-0.2135435373878417</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.845517032131728</v>
+        <v>-0.197459530927083</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.433862160278242</v>
+        <v>-0.1750133754930968</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.530350612669589</v>
+        <v>-0.2090457140869727</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.389589567034295</v>
+        <v>-0.2773305583173235</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.6372202040227455</v>
+        <v>0.09407702042168464</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.8844195626791647</v>
+        <v>-0.0192326157135843</v>
       </c>
       <c r="I4" t="n">
-        <v>-1.516840701790932</v>
+        <v>-0.1856566792843649</v>
       </c>
       <c r="J4" t="n">
-        <v>-1.499529881793564</v>
+        <v>-0.2019443204800327</v>
       </c>
       <c r="K4" t="n">
-        <v>-0.8383491716921569</v>
+        <v>0.0829663825628707</v>
       </c>
       <c r="L4" t="n">
-        <v>-1.174159309950514</v>
+        <v>-0.2320611148916983</v>
       </c>
       <c r="M4" t="n">
-        <v>-1.916827179203874</v>
+        <v>-0.05709219756931964</v>
       </c>
       <c r="N4" t="n">
-        <v>0.02981696532923456</v>
+        <v>0.07192999701482565</v>
       </c>
       <c r="O4" t="n">
-        <v>1.731503056684119</v>
+        <v>0.1733843866996932</v>
       </c>
       <c r="P4" t="n">
-        <v>1.908032053061518</v>
+        <v>0.1828829655939141</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.634255713208566</v>
+        <v>0.1229549801034907</v>
       </c>
       <c r="R4" t="n">
-        <v>3.715095477063076</v>
+        <v>0.2618949171489939</v>
       </c>
       <c r="S4" t="n">
-        <v>1.309672546527908</v>
+        <v>0.3580915994332129</v>
       </c>
     </row>
     <row r="5">
@@ -722,58 +722,58 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.117593785982475</v>
+        <v>0.293856261920703</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1140375442624727</v>
+        <v>0.2890099201161758</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1008358465546875</v>
+        <v>0.2529100692046368</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1001345016997079</v>
+        <v>0.2780123616077224</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1494716623156671</v>
+        <v>0.3231167187319399</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.0233785834435812</v>
+        <v>-0.1207530690486064</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.05572925593187484</v>
+        <v>0.01011568822813892</v>
       </c>
       <c r="I5" t="n">
-        <v>0.08670467166416464</v>
+        <v>0.2600019188784323</v>
       </c>
       <c r="J5" t="n">
-        <v>0.09962971921248168</v>
+        <v>0.2872395195239483</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.0087377153526478</v>
+        <v>-0.1070409074638526</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2612323638451942</v>
+        <v>0.5054533893551957</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.02599838741680547</v>
+        <v>0.05244678854515086</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.07282284344241764</v>
+        <v>-0.1812061016583825</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.1945479893094077</v>
+        <v>-0.4208155878908833</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.220303195781367</v>
+        <v>-0.4558393486354123</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.1387406499022006</v>
+        <v>-0.2792877145802134</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.2093942922283294</v>
+        <v>-0.3901257418863689</v>
       </c>
       <c r="S5" t="n">
-        <v>-0.07093880892018781</v>
+        <v>-0.5333076793793508</v>
       </c>
     </row>
   </sheetData>
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>77.5</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>49.23076923076923</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -834,13 +834,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>9.230769230769232</v>
+        <v>3.076923076923077</v>
       </c>
       <c r="D3" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -850,7 +850,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.5</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>3.076923076923077</v>
@@ -866,13 +866,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>75</v>
+        <v>22.5</v>
       </c>
       <c r="C5" t="n">
-        <v>87.69230769230769</v>
+        <v>44.61538461538462</v>
       </c>
       <c r="D5" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1479,7 +1479,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -1492,7 +1492,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -1505,7 +1505,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -1518,7 +1518,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -1557,7 +1557,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -1570,7 +1570,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -1583,7 +1583,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -1596,7 +1596,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -1635,7 +1635,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -1648,7 +1648,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -1661,7 +1661,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -1674,7 +1674,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -1700,7 +1700,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -1713,7 +1713,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -1726,7 +1726,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -1739,7 +1739,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -1765,7 +1765,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -1778,7 +1778,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -1817,7 +1817,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -1843,7 +1843,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -1869,7 +1869,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -1947,7 +1947,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -1960,7 +1960,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -1999,7 +1999,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -2012,7 +2012,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2038,7 +2038,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2077,7 +2077,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2103,7 +2103,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2116,7 +2116,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2155,7 +2155,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2168,7 +2168,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2181,7 +2181,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2220,7 +2220,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2285,7 +2285,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2298,7 +2298,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2337,7 +2337,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2363,7 +2363,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2376,7 +2376,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2441,7 +2441,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2454,7 +2454,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2467,7 +2467,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2480,7 +2480,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2532,7 +2532,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2545,7 +2545,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2597,7 +2597,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2636,7 +2636,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2649,7 +2649,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2662,7 +2662,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2688,7 +2688,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2779,7 +2779,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2792,7 +2792,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2805,7 +2805,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2818,7 +2818,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2831,7 +2831,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2857,7 +2857,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2919,12 +2919,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -2940,12 +2940,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -2961,12 +2961,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -2982,12 +2982,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -3003,12 +3003,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -3024,12 +3024,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -3045,12 +3045,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -3066,12 +3066,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -3087,12 +3087,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -3108,12 +3108,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -3129,12 +3129,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -3150,12 +3150,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -3171,12 +3171,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -3192,12 +3192,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -3213,12 +3213,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -3234,12 +3234,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac_alto_street</t>
         </is>
       </c>
     </row>
@@ -3255,12 +3255,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -3276,12 +3276,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -3297,12 +3297,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -3318,12 +3318,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -3339,12 +3339,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -3360,12 +3360,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -3381,12 +3381,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -3402,12 +3402,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -3423,12 +3423,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -3444,12 +3444,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -3465,12 +3465,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -3486,12 +3486,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -3507,12 +3507,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -3528,12 +3528,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -3549,12 +3549,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac_alto_street</t>
         </is>
       </c>
     </row>
@@ -3570,12 +3570,12 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -3591,12 +3591,12 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -3612,12 +3612,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -3633,12 +3633,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -3654,12 +3654,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -3675,12 +3675,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -3696,12 +3696,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -3717,12 +3717,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -3738,12 +3738,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -3759,12 +3759,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -3780,12 +3780,12 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -3801,12 +3801,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -3822,12 +3822,12 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -3843,12 +3843,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -3864,12 +3864,12 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -3885,12 +3885,12 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -3906,12 +3906,12 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -3927,12 +3927,12 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -3948,12 +3948,12 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -3969,12 +3969,12 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -3990,12 +3990,12 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -4011,12 +4011,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -4032,12 +4032,12 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -4053,12 +4053,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -4074,12 +4074,12 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -4095,12 +4095,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -4116,12 +4116,12 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -4137,12 +4137,12 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -4158,12 +4158,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -4179,12 +4179,12 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -4200,12 +4200,12 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -4221,12 +4221,12 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -4242,12 +4242,12 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -4263,12 +4263,12 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -4284,12 +4284,12 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -4305,12 +4305,12 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -4326,12 +4326,12 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -4347,12 +4347,12 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -4368,12 +4368,12 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -4389,12 +4389,12 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -4410,12 +4410,12 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -4431,12 +4431,12 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -4452,12 +4452,12 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -4473,12 +4473,12 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -4494,12 +4494,12 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -4515,12 +4515,12 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -4536,12 +4536,12 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -4557,12 +4557,12 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -4578,12 +4578,12 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -4599,12 +4599,12 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -4620,12 +4620,12 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -4641,12 +4641,12 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -4662,12 +4662,12 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -4683,12 +4683,12 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -4704,12 +4704,12 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -4725,12 +4725,12 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -4746,12 +4746,12 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -4767,12 +4767,12 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -4788,12 +4788,12 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -4809,12 +4809,12 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -4830,12 +4830,12 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -4851,12 +4851,12 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -4872,12 +4872,12 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -4893,12 +4893,12 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -4914,12 +4914,12 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -4935,12 +4935,12 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -4956,12 +4956,12 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -4977,12 +4977,12 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -4998,12 +4998,12 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -5019,12 +5019,12 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -5040,12 +5040,12 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -5061,12 +5061,12 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -5082,12 +5082,12 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -5103,12 +5103,12 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>organico_bajo_street</t>
+          <t>cul_de_sac_bajo_street</t>
         </is>
       </c>
     </row>
@@ -5124,12 +5124,12 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -5145,12 +5145,12 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
     </row>
@@ -5214,20 +5214,20 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -5240,12 +5240,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E3" t="b">
@@ -5266,20 +5266,20 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -5292,12 +5292,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E5" t="b">
@@ -5323,15 +5323,15 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -5349,15 +5349,15 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -5370,20 +5370,20 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -5396,12 +5396,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E9" t="b">
@@ -5422,12 +5422,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E10" t="b">
@@ -5448,12 +5448,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E11" t="b">
@@ -5479,15 +5479,15 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -5505,15 +5505,15 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -5526,12 +5526,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E14" t="b">
@@ -5552,12 +5552,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E15" t="b">
@@ -5578,12 +5578,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E16" t="b">
@@ -5604,12 +5604,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E17" t="b">
@@ -5630,12 +5630,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E18" t="b">
@@ -5656,20 +5656,20 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -5682,12 +5682,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E20" t="b">
@@ -5708,20 +5708,20 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -5734,12 +5734,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E22" t="b">
@@ -5765,15 +5765,15 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -5786,12 +5786,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E24" t="b">
@@ -5812,20 +5812,20 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -5838,12 +5838,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E26" t="b">
@@ -5869,15 +5869,15 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -5890,12 +5890,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E28" t="b">
@@ -5921,15 +5921,15 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -5942,12 +5942,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E30" t="b">
@@ -5973,15 +5973,15 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -5994,20 +5994,20 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -6025,7 +6025,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E33" t="b">
@@ -6046,20 +6046,20 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -6077,15 +6077,15 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -6103,15 +6103,15 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -6129,15 +6129,15 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -6150,12 +6150,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E38" t="b">
@@ -6176,12 +6176,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E39" t="b">
@@ -6207,15 +6207,15 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -6233,15 +6233,15 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -6254,20 +6254,20 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -6280,12 +6280,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E43" t="b">
@@ -6311,15 +6311,15 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -6332,20 +6332,20 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -6363,7 +6363,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E46" t="b">
@@ -6389,15 +6389,15 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -6410,12 +6410,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E48" t="b">
@@ -6441,15 +6441,15 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -6462,20 +6462,20 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -6488,12 +6488,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E51" t="b">
@@ -6519,15 +6519,15 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -6545,15 +6545,15 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -6566,12 +6566,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E54" t="b">
@@ -6592,12 +6592,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E55" t="b">
@@ -6618,12 +6618,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E56" t="b">
@@ -6649,15 +6649,15 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -6675,15 +6675,15 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -6696,12 +6696,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E59" t="b">
@@ -6722,12 +6722,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E60" t="b">
@@ -6753,7 +6753,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E61" t="b">
@@ -6774,12 +6774,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E62" t="b">
@@ -6805,15 +6805,15 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -6826,12 +6826,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E64" t="b">
@@ -6852,12 +6852,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E65" t="b">
@@ -6883,15 +6883,15 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -6909,15 +6909,15 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -6930,12 +6930,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E68" t="b">
@@ -6961,15 +6961,15 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -6982,12 +6982,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E70" t="b">
@@ -7008,12 +7008,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E71" t="b">
@@ -7039,15 +7039,15 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -7065,15 +7065,15 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -7091,15 +7091,15 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -7117,15 +7117,15 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -7138,12 +7138,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E76" t="b">
@@ -7164,12 +7164,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E77" t="b">
@@ -7190,20 +7190,20 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -7216,12 +7216,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E79" t="b">
@@ -7247,15 +7247,15 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -7273,15 +7273,15 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -7299,15 +7299,15 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -7320,12 +7320,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E83" t="b">
@@ -7346,12 +7346,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E84" t="b">
@@ -7377,15 +7377,15 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -7398,12 +7398,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E86" t="b">
@@ -7429,15 +7429,15 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -7450,12 +7450,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E88" t="b">
@@ -7481,15 +7481,15 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -7507,15 +7507,15 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -7528,12 +7528,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E91" t="b">
@@ -7554,12 +7554,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E92" t="b">
@@ -7580,12 +7580,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E93" t="b">
@@ -7606,12 +7606,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E94" t="b">
@@ -7632,12 +7632,12 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E95" t="b">
@@ -7663,15 +7663,15 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -7689,15 +7689,15 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -7715,15 +7715,15 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -7741,15 +7741,15 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -7767,15 +7767,15 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -7793,15 +7793,15 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -7814,12 +7814,12 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E102" t="b">
@@ -7840,12 +7840,12 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E103" t="b">
@@ -7866,12 +7866,12 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E104" t="b">
@@ -7892,12 +7892,12 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E105" t="b">
@@ -7918,12 +7918,12 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E106" t="b">
@@ -7949,15 +7949,15 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -7970,20 +7970,20 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="E108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -8021,11 +8021,11 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>98.86363636363636</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -8035,23 +8035,23 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>82.2429906542056</v>
+        <v>60.74766355140186</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>gridiron</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -8061,7 +8061,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="B6" t="n">

--- a/Code/Polygons_analysis/Chandler_AZ/clustering_analysis/urban_pattern_analysis.xlsx
+++ b/Code/Polygons_analysis/Chandler_AZ/clustering_analysis/urban_pattern_analysis.xlsx
@@ -535,62 +535,62 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.503091174310294</v>
+        <v>-0.4830704910935484</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2213590038886145</v>
+        <v>-0.450765794697535</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3094446255436181</v>
+        <v>-0.387741109189354</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5234030543096369</v>
+        <v>-0.4399395069563972</v>
       </c>
       <c r="F2" t="n">
-        <v>1.100984665915834</v>
+        <v>-0.5363348484251925</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.3035802129563768</v>
+        <v>0.1813388056927394</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.6683345827693862</v>
+        <v>0.01369782670899159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2567268893501971</v>
+        <v>-0.4055547881193356</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2790948759134471</v>
+        <v>-0.4163561593562219</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.275429388044856</v>
+        <v>0.1492631168609696</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.7030685574706657</v>
+        <v>-0.5266700156366554</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.3760184739041023</v>
+        <v>-0.05488852898976503</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.2626640401253454</v>
+        <v>0.2415977197988132</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2813381803275932</v>
+        <v>0.2994269872797686</v>
       </c>
       <c r="P2" t="n">
-        <v>0.4590458845946939</v>
+        <v>0.3945974922345679</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.3322657102691432</v>
+        <v>0.154238139857611</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.5051089540000603</v>
+        <v>0.4939337735651917</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.7525655366858693</v>
+        <v>0.4954219665055479</v>
       </c>
     </row>
     <row r="3">
@@ -657,62 +657,62 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.2135435373878417</v>
+        <v>0.2965208057264446</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.197459530927083</v>
+        <v>0.1908237401366647</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.1750133754930968</v>
+        <v>0.1132973679848261</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.2090457140869727</v>
+        <v>0.1749617925962136</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2773305583173235</v>
+        <v>0.4714895496092482</v>
       </c>
       <c r="G4" t="n">
-        <v>0.09407702042168464</v>
+        <v>-0.06632349905339047</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.0192326157135843</v>
+        <v>-0.07179925373725929</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.1856566792843649</v>
+        <v>0.1558293903275979</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.2019443204800327</v>
+        <v>0.1002098220066825</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0829663825628707</v>
+        <v>-0.05997200280237548</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.2320611148916983</v>
+        <v>0.005229431581039733</v>
       </c>
       <c r="M4" t="n">
-        <v>-0.05709219756931964</v>
+        <v>0.05371584030710982</v>
       </c>
       <c r="N4" t="n">
-        <v>0.07192999701482565</v>
+        <v>-0.4995436513580324</v>
       </c>
       <c r="O4" t="n">
-        <v>0.1733843866996932</v>
+        <v>-0.06722447593081539</v>
       </c>
       <c r="P4" t="n">
-        <v>0.1828829655939141</v>
+        <v>-0.2888766932310671</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.1229549801034907</v>
+        <v>0.1800445583579026</v>
       </c>
       <c r="R4" t="n">
-        <v>0.2618949171489939</v>
+        <v>-0.2165462926681128</v>
       </c>
       <c r="S4" t="n">
-        <v>0.3580915994332129</v>
+        <v>0.09439699858127644</v>
       </c>
     </row>
     <row r="5">
@@ -722,58 +722,58 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.293856261920703</v>
+        <v>0.3257152623304564</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2890099201161758</v>
+        <v>0.3264971857423948</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2529100692046368</v>
+        <v>0.2933588046062126</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2780123616077224</v>
+        <v>0.3091212604316526</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3231167187319399</v>
+        <v>0.2973253327605222</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1207530690486064</v>
+        <v>-0.1266023936648706</v>
       </c>
       <c r="H5" t="n">
-        <v>0.01011568822813892</v>
+        <v>-0.040306112366765</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2600019188784323</v>
+        <v>0.2891225985248859</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2872395195239483</v>
+        <v>0.3112854726427013</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.1070409074638526</v>
+        <v>-0.102669670083721</v>
       </c>
       <c r="L5" t="n">
-        <v>0.5054533893551957</v>
+        <v>0.5166615230643422</v>
       </c>
       <c r="M5" t="n">
-        <v>0.05244678854515086</v>
+        <v>-0.01291661585853589</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.1812061016583825</v>
+        <v>-0.1574205928702996</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.4208155878908833</v>
+        <v>-0.3318729809757834</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.4558393486354123</v>
+        <v>-0.3740211349626223</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.2792877145802134</v>
+        <v>-0.2144659264490947</v>
       </c>
       <c r="R5" t="n">
-        <v>-0.3901257418863689</v>
+        <v>-0.3632580660503347</v>
       </c>
       <c r="S5" t="n">
-        <v>-0.5333076793793508</v>
+        <v>-0.4266360487453277</v>
       </c>
     </row>
   </sheetData>
@@ -818,10 +818,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>77.5</v>
+        <v>70</v>
       </c>
       <c r="C2" t="n">
-        <v>49.23076923076923</v>
+        <v>21.53846153846154</v>
       </c>
       <c r="D2" t="n">
         <v>100</v>
@@ -850,10 +850,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>3.076923076923077</v>
+        <v>13.84615384615385</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.5</v>
+        <v>25</v>
       </c>
       <c r="C5" t="n">
-        <v>44.61538461538462</v>
+        <v>61.53846153846154</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -1479,7 +1479,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -1596,7 +1596,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -1739,7 +1739,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -1817,7 +1817,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -1843,7 +1843,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -1960,7 +1960,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -1999,7 +1999,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -2012,7 +2012,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -2116,7 +2116,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -2168,7 +2168,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -2298,7 +2298,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -2454,7 +2454,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -2532,7 +2532,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -2545,7 +2545,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -2636,7 +2636,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -2649,7 +2649,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -2662,7 +2662,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -2779,7 +2779,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -2805,7 +2805,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -2831,7 +2831,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
     </row>
@@ -2919,12 +2919,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -2940,12 +2940,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -3003,12 +3003,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -3045,12 +3045,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -3087,12 +3087,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -3108,12 +3108,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -3129,12 +3129,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -3171,12 +3171,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -3276,12 +3276,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -3297,12 +3297,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -3339,12 +3339,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -3360,12 +3360,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -3402,12 +3402,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -3444,12 +3444,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -3465,12 +3465,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -3507,12 +3507,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -3570,12 +3570,12 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -3633,12 +3633,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -3654,12 +3654,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -3675,12 +3675,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -3696,12 +3696,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -3717,12 +3717,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -3738,12 +3738,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -3759,12 +3759,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -3780,12 +3780,12 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -3822,12 +3822,12 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -3843,12 +3843,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -3885,12 +3885,12 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -3906,12 +3906,12 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -3948,12 +3948,12 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -3969,12 +3969,12 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -4032,12 +4032,12 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -4053,12 +4053,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -4074,12 +4074,12 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -4095,12 +4095,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -4137,12 +4137,12 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -4158,12 +4158,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -4179,12 +4179,12 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -4200,12 +4200,12 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -4242,12 +4242,12 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -4263,12 +4263,12 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -4284,12 +4284,12 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -4389,12 +4389,12 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -4410,12 +4410,12 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -4431,12 +4431,12 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -4452,12 +4452,12 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -4557,12 +4557,12 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -4578,12 +4578,12 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -4599,12 +4599,12 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -4641,12 +4641,12 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -4725,12 +4725,12 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -4746,12 +4746,12 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -4767,12 +4767,12 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -4788,12 +4788,12 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -4809,12 +4809,12 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -4830,12 +4830,12 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -4893,12 +4893,12 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -4914,12 +4914,12 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -4956,12 +4956,12 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -4977,12 +4977,12 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -4998,12 +4998,12 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -5019,12 +5019,12 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -5040,12 +5040,12 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -5061,12 +5061,12 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -5103,12 +5103,12 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>cul_de_sac_bajo_street</t>
+          <t>organico</t>
         </is>
       </c>
     </row>
@@ -5214,20 +5214,20 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -5245,15 +5245,15 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -5323,15 +5323,15 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -5375,15 +5375,15 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -5427,15 +5427,15 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -5448,12 +5448,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E11" t="b">
@@ -5479,15 +5479,15 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -5531,15 +5531,15 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -5630,7 +5630,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -5639,11 +5639,11 @@
         </is>
       </c>
       <c r="E18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -5661,15 +5661,15 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -5687,15 +5687,15 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -5734,12 +5734,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E22" t="b">
@@ -5765,15 +5765,15 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -5817,15 +5817,15 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -5869,15 +5869,15 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -5890,12 +5890,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E28" t="b">
@@ -5942,12 +5942,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E30" t="b">
@@ -6025,7 +6025,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E33" t="b">
@@ -6103,15 +6103,15 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -6129,15 +6129,15 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -6155,15 +6155,15 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -6176,12 +6176,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E39" t="b">
@@ -6207,15 +6207,15 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -6233,15 +6233,15 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -6254,20 +6254,20 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -6280,20 +6280,20 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -6337,15 +6337,15 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -6363,7 +6363,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E46" t="b">
@@ -6415,15 +6415,15 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -6441,15 +6441,15 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -6488,12 +6488,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E51" t="b">
@@ -6519,15 +6519,15 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -6592,12 +6592,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E55" t="b">
@@ -6623,15 +6623,15 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -6649,15 +6649,15 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -6675,15 +6675,15 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -6722,20 +6722,20 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -6753,7 +6753,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E61" t="b">
@@ -6779,15 +6779,15 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -6805,15 +6805,15 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -6852,12 +6852,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E65" t="b">
@@ -6883,15 +6883,15 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -6909,15 +6909,15 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -7039,15 +7039,15 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -7065,15 +7065,15 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -7091,15 +7091,15 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -7117,15 +7117,15 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -7164,7 +7164,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -7173,11 +7173,11 @@
         </is>
       </c>
       <c r="E77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -7247,15 +7247,15 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -7273,15 +7273,15 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -7299,15 +7299,15 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -7320,7 +7320,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -7329,11 +7329,11 @@
         </is>
       </c>
       <c r="E83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -7346,12 +7346,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E84" t="b">
@@ -7455,15 +7455,15 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -7481,15 +7481,15 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -7507,15 +7507,15 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -7528,20 +7528,20 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -7554,12 +7554,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E92" t="b">
@@ -7580,20 +7580,20 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -7663,15 +7663,15 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -7689,15 +7689,15 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -7741,15 +7741,15 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -7767,15 +7767,15 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -7793,15 +7793,15 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>No coincide</t>
+          <t>Coincide</t>
         </is>
       </c>
     </row>
@@ -7814,20 +7814,20 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -7845,15 +7845,15 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -7866,20 +7866,20 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -7918,20 +7918,20 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="E106" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Coincide</t>
+          <t>No coincide</t>
         </is>
       </c>
     </row>
@@ -8021,37 +8021,37 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Global</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>60.74766355140186</v>
+        <v>68.18181818181817</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>Global</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>65.42056074766354</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>gridiron</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -8061,7 +8061,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>gridiron</t>
         </is>
       </c>
       <c r="B6" t="n">
